--- a/dataset/dataset.xlsx
+++ b/dataset/dataset.xlsx
@@ -1,22 +1,1295 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF6D9BD-2052-4F10-BC90-142989306E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView xWindow="38280" yWindow="2340" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$366</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="394">
+  <si>
+    <t>Url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Symptom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Root cause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pattern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect Model Structure</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/using-mseloss-instead-of-crossentropy-for-ordinal-regression-classification/102473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abnormal output results </t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/simple-categorical-cross-entropy-model-not-learning/109506</t>
+  </si>
+  <si>
+    <t>Abnormal Convergence Process</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/accuracy-of-signal-prediction-model-stuck-at-51-after-few-epochs/130082</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/approximating-sine-function-using-neural-network/65875</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/lstm-with-inputs-as-mfcc-features-not-learning/131120</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abnormal Evaluation Metrics Value </t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/nan-loss-and-grad-encoutered-at-first-epoch/163525</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/fcn8s-implementation-network-not-learning/81350</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/slow-training-and-validation-loss-doesnt-decrease/57687/3</t>
+  </si>
+  <si>
+    <t>Abnormal Intermediate Results</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/simple-rnn-stuck-around-the-mean/48413</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://discuss.pytorch.org/t/loss-doesnt-decrease-while-training/83751</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/loss-wont-decrease-if-batch-size-1/31874</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/accuracy-and-loss-not-changing-regardless-of-model/79437</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/need-help-loss-and-acc-stay-the-same-too-early-by-using-bcewithlogitsloss/88994</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://discuss.pytorch.org/t/training-resnet18-output-of-resnet18-images/88674</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://discuss.pytorch.org/t/why-my-network-loss-is-constant-and-the-network-is-not-training/33822</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/training-sometimes-starts-and-remains-with-zero-gradient-values/146399</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/xor-model-is-very-bad-what-am-i-doing-wrong/113175</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/loss-accuracy-is-not-changing-optmizer-step-is-not-working/75514</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/save-a-pytorch-model-reload-it-for-transfer-learning-but-evaluation-result-is-bad/151024</t>
+  </si>
+  <si>
+    <t>Incorrect Model Storage Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/how-to-save-the-best-model/84608</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/pretrained-loaded-but-the-performance-worse-at-beginning/10082</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/loading-optimizer-dict-starts-training-from-initial-lr/36328</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/model-performance-decrease-to-nearly-1-4-when-loading-a-checkpoint-but-works-fine-for-simpler-data-and-in-script/162182</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/same-lstm-gru-implementation-different-results-pytorch-keras/121755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abnormal Model Parameter Initialization </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/loss-doesnt-decrease-model-analysis-help/73600</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/large-performance-gap-between-pytorch-and-keras-for-imdb-sentiment-analysis-model/135659</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/weights-stop-updating-after-manual-update/140983</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/pretrained-fcn-not-training/170934</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/quantization-of-efficientnet-poor-performance/166159</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/using-the-same-start-parameters-again/39298/3</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/weight-initialization-with-a-custom-method-in-nn-sequential/24846</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/different-training-accuracies-using-same-random-seed/58663</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/resetting-the-learning-rate-optimiser-and-model-states-while-training-for-every-fold-in-cross-validation/101109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://discuss.pytorch.org/t/test-accuracy-is-increasing-when-calculated-at-intermediate-epochs-vs-at-the-last-epoch/81291</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://discuss.pytorch.org/t/improve-my-training-iteration/84770</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slow Execution Time</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/use-of-torch-manual-seed-still-results-in-different-initial-weights-each-time/49257/8</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/tabular-data-dae-mlp-model-nan-values-while-training/119578/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/problem-using-torch-manual-seed/19445/14</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/different-ouputs-for-the-same-network/13641/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://discuss.pytorch.org/t/why-we-skip-initialize-running-mean-and-running-var-while-using-pretrained-resnet50/63815</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/transfer-learning-using-vgg16/20653</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/learnable-scalars/68797</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/parameters-almost-same-in-depthwise-separable-convolution-when-compared-to-a-standard-cnn/65649</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/loss-increasing-dramatically-when-running-with-multiple-gpu/83040/6</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/why-the-results-is-different-when-the-init-function-in-nn-modulehas-been-modifed/148705/3</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/initialize-nn-linear-with-specific-weights/29005</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/random-transforms-not-consistent-with-the-same-seed/63816</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/speed-of-custom-rnn-is-super-slow/63209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://discuss.pytorch.org/t/set-weights-for-embedding-layer/56097</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/how-to-go-about-unbalanced-data-in-a-binary-classification-in-pytorch/90655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defective Dataset </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/alexnet-with-imagenet-testing/67853</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/imbalanced-class-augmentation-problem/144135</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/ctcloss-predicts-blanks-after-a-few-batches/40190/14</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/loss-diverges-while-training-unet/72911</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/how-to-train-with-imbalance-class-for-classification/23468/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improper or Missing Data Preprocessing </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/getting-nan-as-loss-when-i-use-sgd-as-the-optimization-algorithm-of-my-cnn-model/49724</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/keras-gives-better-performance-in-both-training-speed-and-result-generalization-than-pytorch-in-simple-mlp-help/102904</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/every-single-model-output-in-batch-the-same-model-does-not-does-not-converge-or-overfit-even-with-10-samples/156029</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/rnn-implementation-not-learning-and-test-loss-stuck-at-same-value/165126</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/newbie-stock-prediction-model-with-lstm-doesnt-work-prorperly/13273</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/gradients-over-transformation-and-reshape-operations/74226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://discuss.pytorch.org/t/why-does-my-training-loss-of-resnet50-not-converge/104936</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/im-adding-a-filter-to-my-network-but-my-loss-is-returning-nan/71322</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/question-loss-is-not-decreasing/119029</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/data-augmentation-after-creating-dataset/120835/7</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/constant-prediction-in-cnn/89745</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/loss-is-1-but-gradients-are-zero/149296</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/item-before-backward-makes-execution-much-slower/41515</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/simple-binary-classification-nn-doesnt-converge/166103</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/what-it-means-when-model-is-unable-to-overfit-small-batch-of-examples-even-though-it-is-not-small/151285</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/padding-mode-not-working-correctly-in-conv2d/82650</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/training-data-becomes-nan-after-several-epochs/126760</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/training-with-batch-size-1-all-outputs-are-the-same-and-trains-poorly/102477</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/rnn-predicting-a-constant-output/40397</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/loss-and-metrics-are-unusual-use-model-eval-in-valid-phase/35689</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/cnn-unet-for-different-input-output-but-provide-almost-same-predictions/107089</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/num-workers-0-makes-image-loading-slower-rather-than-faster/58592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">improper Dataset Retrieval Method </t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/not-learning-training-after-each-epoch-in-regression/144659</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/image-classification-completely-wrong-with-pytorch-mobile-ios-example/81585/8</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/implement-a-keras-model-using-pytorch-doesnt-learn/92181</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/dataloader-with-num-workers-0-only-using-cpu-in-main-process/26680</t>
+  </si>
+  <si>
+    <t>Abnormal GPU Utilization</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/weightedrandomsampler-sampler-not-working-properly/69063</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/multiprocessing-and-dataloader/87772</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/is-weightedsampler-really-useful/40057</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/shuffling-dataloader-causing-aucroc-falls-down/93949</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/infinite-value-occurring-in-training-dataset-after-exactly-7-epochs/129175</t>
+  </si>
+  <si>
+    <t>Incorrect Data Dimension Operation</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/linear-regression-giving-poor-results/40444</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/why-loss-function-always-return-zero-after-first-epoch/138294</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/fusion-ensembel-of-two-mlp-models/152616/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://discuss.pytorch.org/t/lstm-not-working-properly-on-validation/86322</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/nn-ctcloss-returns-inf/126687</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/why-my-model-behaves-differently-at-each-load/164107/2</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/simple-cnn-for-object-counting-only-works-with-batch-size-1/82450</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/cnn-lstm-problem/69344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://discuss.pytorch.org/t/400-higher-error-with-pytorch-compared-with-identical-keras-model-with-adam-optimizer/160720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/pytorch-model-ported-from-keras-model-not-learning/77192/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://discuss.pytorch.org/t/significantly-different-performance-scores-between-pytorch-and-sklearn-model/91826</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/classification-is-incoherent-with-test-results-on-cifar10-and-custom-cnn/121752</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/for-beginners-do-not-use-view-or-reshape-to-swap-dimensions-of-tensors/75524</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/lstm-for-time-series-prediction-failing-to-learn/108102</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/why-regression-model-built-using-torch-wont-work-well/45037</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/why-is-my-cartpole-dqn-not-learning/158378</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/model-returning-nan-as-output/82510/7</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/including-convolutional-layers-causes-my-network-not-to-train/95243</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/cost-function-repeats-itself-at-each-epoch-why/95790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disruption of  Computation Graph </t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/init-parameter-depend-on-data-during-first-forward/137205/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/loss-not-updating-in-pytorch/169048</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/data-augmentation-reduces-model-credibility-scores/108529</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/using-tensor-data/79640</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/how-to-linearly-interpolate-between-two-models/98091</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/weights-not-getting-updated-when-creating-tensor-in-the-middle-of-the-computation/109524</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/training-loss-does-not-change-at-all/120005</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/loss-remains-the-same-for-every-epoch/177029/9</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/model-is-not-training-pytorch/85346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://discuss.pytorch.org/t/how-does-batchnorm2d-work-with-colab-code/161614</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://discuss.pytorch.org/t/gans-loss-function-question/120279</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/loss-backward-does-not-update/129991</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/model-doesnt-train-after-custom-weight-initialization/127643</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/layer-weights-in-custom-loss-results-in-autograd-problem/102137</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/grads-are-none-after-backward-broken-graph/165574</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/network-weights-wont-update/146238</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/embeddings-not-getting-updated/3796</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/loss-is-seen-but-network-weights-are-not-updated-and-network-does-not-learn/92784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://discuss.pytorch.org/t/transferlearning-does-not-work-resnet-cifar10/131563</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://discuss.pytorch.org/t/netwrok-does-not-learns/39510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/forward-hook-activations-for-loss-computation/142903/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://discuss.pytorch.org/t/i-cant-increase-accuracy/143098</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/super-basic-feedforward-network-does-not-learn/158169/3</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/unused-model-parameters-affect-optimization-for-adam/27563</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/weights-didnt-update/72014</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/variable-not-backpropagating/36422</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/sklearn-loss-function/149850</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/bias-are-not-updating-in-decoder-model/80897</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/block-the-gradient-flow-in-a-certain-path-beckward/63877</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/pytorch-loss-of-conv-neural-network-not-decreasing-instead-obsoleting/113569</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/when-to-use-detach/98147</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/why-is-my-dqn-deep-q-network-not-learning/126336/14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://discuss.pytorch.org/t/model-eval-accuracy-is-low/123716</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/grad-none-when-using-custom-loss-function-for-a2c-implementation/137240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/optimizer-dont-update-weights/79190</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/testing-in-loop-as-training/70881</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/constant-segmentation-loss/29840</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/gradient-is-none-for-some-parameters/162715</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/how-do-i-pass-numpy-array-to-conv2d-weight-for-initialization/56595</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/how-to-solve-resnet-overfitting/116921/2</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/implementing-your-own-loss-function-is-backprorogation-needed-when-nn-module-is-used/17066</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/very-bad-performance-even-by-using-cuda/45577</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/very-slow-training-on-gpu-for-lstm-nlp-multiclass-classification/94593</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/cost-function-repeats-itself-at-eachepoch-why/95790/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/how-to-feed-in-output-of-a-trained-nn-into-another-network-that-must-be-trained/89651</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/what-is-missing-optimizer-zero-grad-ed-loss-backproped-but-still-doesnt-train/49643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missed or Misplaced Training Operations </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/loss-problem-in-net-finetuning/18311</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/weight-gradients-not-same-for-same-input/147590</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/loss-of-neural-network-is-constant/84800</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/custom-layers-weights-does-not-update/69090</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/loss-remains-constant-when-training-vae/78568</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/different-learning-rate-from-the-same-module/83042</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/how-are-optimizer-step-and-loss-backward-related/7350</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/strange-behaviour-in-pytorch/113768</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/correct-way-to-declare-multiple-optimizers-for-single-model-in-ddp/87348</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/help-with-implementing-a-custom-loss-function/130518</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/getting-same-result-in-each-epoch/46208</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/gpu-usage-increases-along-epochs-whereas-no-new-cuda-tensors-are-in-the-scope/90400/6</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/backward-and-weight-update-for-two-linked-nets/60855</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/could-you-give-me-some-tips-to-train-several-decoders/163284</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/lstm-text-generation-loss-not-decreasing/12099</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/tried-to-replicate-keras-example-got-strange-result/42224</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/how-to-get-gradients-with-respect-to-input-and-change-input-rather-than-trainable-vars-to-minimize-loss/79970</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/why-is-the-validation-loss-lower-than-the-training-loss/72713</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/sum-is-zero-gradient-still-flowing-when-multiplied-with-one-hot-vec/75597</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/two-optimizers-for-one-model/11085</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/loading-a-saved-model-produces-different-results-on-forward-pass/100222</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/resnet101-sensitive-to-previous-evaluations-in-train-mode/93015</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/how-to-implement-torch-optim-lr-scheduler-cosineannealinglr/28797</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/how-to-use-torch-optim-lr-scheduler-exponentiallr/12444</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/loss-is-well-calculated-but-all-of-layer-grad-data-is-zero/155843/5</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/why-i-get-worse-accuracy-when-using-bert/101907</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/create-a-f-score-loss-function/102279</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/why-auxiliary-logits-set-to-false-in-train-mode/40705/13</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/embedding-module-does-not-update-gradient/10583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://discuss.pytorch.org/t/simplest-lstm-possible-and-it-does-not-work/29507</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/parameter-is-supposed-to-be-trainable-but-does-not-change/150401</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/measuring-uncertainty-using-mc-dropout/91753</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/training-loss-keeps-going-up/158448</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/amp-convergence-issues/101080</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/simulated-annealing-custom-optimizer/38609/6</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/linear-regression-model-problems-with-loss/102879</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/my-cpu-ram-is-getting-full-but-my-gpu-ram-is-underutilized/23786/3</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/low-gpu-usage-during-training/121588/20</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/nearly-constant-training-and-validation-accuracy/120655</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/gradient-clipping-with-torch-cuda-amp/88359</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/i-want-to-train-a-neural-network-that-can-map-the-two-dimensional-uniform-distribution-to-the-512-dimensional-normal-distribution/153752</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/custom-loss-wing-loss-becomes-nan-after-a-few-batches/35824</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/loss-decreasing-but-accuracy-is-still-the-same/97954</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/conv2d-forward-way-slower-than-backward/110447</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/dealing-with-imbalanced-datasets-in-pytorch/22596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://discuss.pytorch.org/t/gradients-exist-but-weights-not-updating/20484</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/revert-optimizer-step/70692</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/built-in-way-to-only-update-weights-corresponding-to-certain-outputs/15148/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ https://discuss.pytorch.org/t/if-my-model-has-dropout-do-i-have-to-alternate-between-model-eval-and-model-train-during-training/83007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/how-should-i-implement-cross-entropy-loss-with-continuous-target-outputs/10720</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/variables-are-not-updated-after-loss-backward-and-optimizer-step/112135</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/gans-2-sequential-blocks-vs-a-concatenated-block/79555</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/very-small-learning-rate-needed-for-convergence/18833</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/can-gradients-accumulate-in-multiple-leaves/107481</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/scheduler-step-after-each-epoch-or-after-each-minibatch/111249</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/evaluate-multiple-models-with-one-evaluator-results-weird-metrics/96695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flawed Model Evaluation Operation </t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/getting-different-feature-vectors-from-frozen-layers-after-training/111449</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/testing-on-one-image-not-working/70861</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/neural-network-not-learning-at-all/175038/20</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/where-should-i-put-train-and-eval/105009/2</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/confusing-and-unpredictable-behavior-while-calculating-accuracy/115664</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/simple-vgg16-on-mnist-10-classes/127286</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/lstm-training-loss-does-not-decrease/57641</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/classifier-does-the-wrong-prediction-on-single-images/47668</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/time-series-prediction-day-by-day-with-conv1d/115102</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/why-is-my-val-and-training-accuracy-so-low/113423</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/about-resnet-with-batchsize-1-the-val-result-only-gives-1label/43764</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/denoising-autoencoder-testing-mode-for-multiclass-classification/70789</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/fix-backbone-and-task1-parameters-fine-tune-task2-s-parameters/80103</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/different-results-when-manually-optimizing-a-networks-parameters/140781</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/how-to-fix-the-result-during-inference-at-models-using-batchnorm/109320</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/cnn-trained-model-doesnt-appear-to-be-working/93176</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/bad-prediction-of-batches-when-model-eval/32970</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/where-to-use-model-eval/89200</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/early-stopping-loop-does-not-break-training-continues/57896</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/how-to-compute-the-validation-loss-simple-linear-regression/92507</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/my-basic-model-doesnt-learn-can-someone-help-me/147010/2</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/using-a-combined-loss-to-update-two-different-models/73925</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/efficient-train-dev-sets-evaluation/17514</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/model-shows-different-predictions-after-training-without-weight-update/75877</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/training-acc-going-up-test-acc-doesnt-change/43349</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/validation-log-loss-lower-than-training/70618</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/two-image-input-vgg-16-model/171226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improper Hyperparameters </t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/loss-value-doesnt-decrease/85255</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/batch-gradient-descent-vanilla/73603</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/there-is-not-any-change-in-training-loss-and-validation-loss-after-i-changed-the-learning-rate/102525</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/pytorch-constant-loss/90356</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/problem-with-output-when-training-model/160627/2</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/custom-loss-function-not-decreasing/75041</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/encounter-low-gpu-util-and-cpu-util/160617</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/nan-training-and-testing-loss/136115</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/wrote-a-transformer-from-scratch-but-the-loss-isnt-decreasing/126531</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/neural-network-not-learning-anything-output-from-each-layer-mostly-zeros-yes-loss-fn-and-optimizer-are-correctly-written/97743</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/model-initialized-from-scratch-is-not-training-at-all/29606</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/cnn-results-negative-when-using-log-softmax-and-nll-loss/16839</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/very-small-lstm-gradients/59234</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/adam-optimizer-doesnt-converge-while-sgd-works-fine/25338</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/training-elu-network-with-pytorch-ignite/81854</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/lenet5-on-mnist-classification-not-learning/119794</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/cnn-model-does-not-update-weights/170035</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/my-binary-classifier-is-not-learning/85680</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/failing-to-learn-a-quadratic-function-with-pytorch/89437</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/cnn-sometimes-does-not-learn-at-all/106365</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/different-learning-rates-for-adam-gives-precision-and-recall-0/82806</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/training-a-region-proposal-network-with-a-resnet-101-backbone/98144</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/how-is-your-experience-of-using-l1-regularization/153565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://discuss.pytorch.org/t/nan-after-50-epochs/75835</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/changing-the-order-of-operations-from-convolution-batch-normalization-and-activation-to-batch-normalization-activation-and-convolution-on-a-resnet-arhitecture-makes-the-model-perform-very-poorly/129870</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/random-sampler-implementation/18934</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/why-this-convnet-with-sgd-batch-size-1-fail/11887</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/implement-learning-rate-decay/98238</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/transformer-translation-task-interaction-between-norm-bias-and-attention-bias-causing-divergence/142900</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/turn-a-convolutional-autoencoder-into-a-variational-autoencoder/78084</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/rnn-and-adam-slower-convergence-than-keras/11278</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/frequent-discontinuities-in-loss-function-during-training/166847</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/faster-rcnn-yields-hundred-maches-every-time/100279</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/vgg16-using-cifar10-not-converging/114693</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/why-sometimes-model-dont-training/165921</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/cpu-inference-time-varies-depending-on-checkpoint/47973</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/moving-to-numerically-stable-log-sum-exp-leads-to-extremely-large-loss-values/61938/2</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/loss-becomes-nan-after-few-iterations/114491</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/semantic-segmenataion-model-problem/40678/21</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/advice-improving-a-basic-machine-learning-model/31871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incorrect Loss Function or Activation Function </t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/calculate-loss-of-one-hot-vector/63914</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/sequence-multiclass-classification/117543</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/could-you-please-find-out-why-my-net-loss-doesnt-change/76679</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/fcn-resnet101-implementation-help/71435</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/bcewithlogitsloss-giving-negative-loss/123902</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/can-ctcloss-go-down-to-zero/112642</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/lstm-plateauing-at-25-accuracy-on-train-set-tensorflow-version-achieves-95-test-acc/140936</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/using-network-to-do-classification-on-mixture-of-gaussian-weird-behaviour/54101/4</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/same-model-on-scikit-learn-does-well-but-fails-in-pytorch/21511</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/a-question-regarding-cnns-in-pytorch/27808</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/comparison-of-nn-crossentropyloss-with-custom-written-cross-entropy-loss/58110</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/vgg-with-1x1-convolution/57980</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/using-lstm-stateful-for-passing-context-b-w-batches-may-be-some-error-in-context-passing-not-getting-good-results/82512</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/the-network-does-not-learn-the-total-loss-and-the-inference-result-will-be-the-same-value-every-time/100611</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/transformer-model-doesnt-improve-even-when-fed-the-same-single-example-over-and-over/76492</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/using-sigmoid-output-with-cross-entropy-loss/96439</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/solved-no-training-progress-when-using-my-own-l1loss-function/11936</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/losses-vary-slightly-around-50-and-dont-reduce/170741</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/vae-training-loss/141318</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/am-i-training-the-model-correctly/83636</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/loss-function-for-multi-class-with-probabilities-as-output/60866</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/why-my-loss-functions-value-doesnt-going-down/27298</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/same-loss-patterns-while-training-convolutional-autoencoder/28641</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/simple-linear-model-loss-not-decreasing/69761</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/unbalanced-multi-label-classification-loss/110478</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/torch-doesnt-optimize-the-model/79024</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/same-accuracy-but-different-loss-between-pytorch-and-keras/83664</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/loss-fails-to-update-sometimes/73895</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/how-to-write-custom-crossentropyloss/58072</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/a-genetic-nn-with-pytorch-extracting-output-layer-for-the-fitness-function/148876</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/the-magnitude-of-kl-divergence-loss-is-too-low-compared-to-cross-entropy-loss/95775/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incorrect Loss Function or Activation Function </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/training-loss-is-not-changing-at-all-while-training-lstm/81063</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/noob-question-model-doesnt-update/156626</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/output-layer-activation-and-loss-function/79456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://discuss.pytorch.org/t/2d-crossentropyloss-for-one-hot-targets/117545/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/loss-staying-the-same-the-whole-time-during-training/97927/4</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/focal-loss-performs-worse-than-cross-entropy-loss-in-clasification/139312</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/is-mutually-inclusive-images-for-image-classification-a-good-dataset/168491</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/model-not-being-trained/55904</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/pytorch-chatbot-loss-function-with-ignore-index-instead-of-targets-padding-mask/56093</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/simple-networks-does-not-reach-zero-loss/60203</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/mnist-dataset-why-is-my-loss-so-high-beginner/62670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://discuss.pytorch.org/t/gradient-tensor-exists-for-binary-output-but-is-none-for-multiclass-output/50153</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/unet-loss-very-large/89338</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/how-to-normalize-losses-of-different-scale/126995</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/when-i-training-the-car-evaluation-the-training-loss-validation-loss-and-accuracy-doesn-t-change-the-above-is-my-code-i-am-a-beginner-please-give-me-advice-thank-you-very-much/60062</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/issues-with-training-a-model/116852</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/u-net-segmentation-predict-single-class-is-stuck-at-constant-loss/94140</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/when-do-i-turn-prediction-numbers-into-1-and-0-for-binary-classification/130075</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/loss-and-accuracy-stuck-very-low-gradient/50048</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/regarding-different-loss-values-with-cross-entropy-loss-during-single-tensors-vs-probability-tensors/171505</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/is-this-a-correct-implementation-and-use-of-focal-loss-for-binary-classification-on-vision-transformer-output-if-it-is-correct-why-are-all-train-and-val-preds-still-stuck-at-zero/145238</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/bceloss-vs-bcewithlogitsloss/33586</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/how-to-train-the-network-with-multiple-branches/2152</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/loss-doesnt-decrease-reuqires-grad-true/108071</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/neural-network-only-gives-outputs-of-0/77250</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/simple-2-class-mlp/27297</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/is-the-code-correct-for-character-level-generation-in-lstm/99580</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/kl-divergence-loss/65393</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/weight-in-cross-entropy-loss/78256</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/1-confusion-about-training-loss-2-why-validation-loss-is-so-high/87833</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/simple-custom-optimizer-in-a-nn-via-model-parameters/151204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incorrect Optimizer Settings </t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/loss-stuck-at-the-same-value-with-pretrained-model/79269</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/whats-the-current-idiomatic-way-to-sgd-stepping-w-o-using-x-grad-data/67131</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/loss-is-stuck-in-quantization-aware-training/112604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incorrect State Sharing </t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/cdist-vs-matmul/61682</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/conv2d-computations-10x-faster-with-high-gpu-memory-usage-than-low-gpu-memory-usage/157615</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/how-to-measure-the-executive-time-training-and-inference/58014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/why-no-direct-relation-between-cpu-or-gpu-inference-time-and-number-of-parameters-in-models/62573/2</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/why-time-time-in-python-is-inaccurte/94274</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/time-to-load-training-batch-to-gpu-varying-with-model-size/64367</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/conv3d-vs-conv2d-speed/18132</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/backward-computation-10x-slower-than-forward/71956</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/inference-while-evaluation-cost-more-time-than-train/106285</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/data-parallelism-doesnt-speed-up-training/131554/7</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/profiling-pytorch-pred-cpu-is-reponsible-for-95-of-runtime/9666</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/why-does-torch-cuda-empty-cache-make-the-gpu-utilization-near-0-and-slow-down-the-training-time/65196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inefficient GPU Uilization Strategy </t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/run-pytorch-on-multiple-gpus/20932</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/training-multiple-models-with-one-dataloader/136117</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/100x-more-time-cost-of-dcgan-hessian-vector-product/56240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ineffective Acceleration Operation </t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/gpu-not-fully-used-how-to-optimize-the-code/84519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://discuss.pytorch.org/t/convtranspose1d-extremely-slow-on-gpu-t4-slower-than-cpu/88977</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/pytorch-copying-to-gpu-is-slow/114488/4</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/loss-backward-time-increases-for-each-batch/113790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redundant Inter-device Data Transfer </t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/evaluator-returns-nan/107972/3</t>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/how-to-use-the-weight-parameter-for-f-cross-entropy-correctly/17786</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/usage-of-the-value-from-layer-register-forward-hook-when-training/28167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/unstable-validation-loss-with-constantly-decreasing-training-loss/32548/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/loss-different-between-the-pytorch-and-keras/98810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/probabilities-in-multi-label-classification-are-all-0-5/108533</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://discuss.pytorch.org/t/crossentropyloss-loss-becomes-nan-after-several-iteration/73530</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -56,9 +1329,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -70,14 +1346,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -115,7 +1394,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -187,7 +1466,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -360,14 +1639,4077 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D366"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="35" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="75.36328125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="35" style="1"/>
+    <col min="4" max="4" width="35" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="35" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="56" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="56" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500659C6-33B5-4E28-A5A4-DAB917C2C1EB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -375,27 +5717,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
